--- a/raw_data/20200818_saline/20200818_Sensor2_Test_85.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_85.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648FFD7-E310-4EA8-92D2-41500E42DB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>75972.797544</v>
+        <v>75972.797544000001</v>
       </c>
       <c r="B2" s="1">
         <v>21.103555</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.260000</v>
+        <v>1248.26</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.501000</v>
+        <v>-304.50099999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>75983.190221</v>
+        <v>75983.190220999997</v>
       </c>
       <c r="G2" s="1">
-        <v>21.106442</v>
+        <v>21.106442000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.950000</v>
+        <v>1273.95</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.089000</v>
+        <v>-264.089</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>75993.320539</v>
+        <v>75993.320538999993</v>
       </c>
       <c r="L2" s="1">
-        <v>21.109256</v>
+        <v>21.109255999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1310.080000</v>
+        <v>1310.08</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.641000</v>
+        <v>-203.64099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>76003.837214</v>
+        <v>76003.837213999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.112177</v>
+        <v>21.112176999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.610000</v>
+        <v>1322.61</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.032000</v>
+        <v>-186.03200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>76014.741232</v>
       </c>
       <c r="V2" s="1">
-        <v>21.115206</v>
+        <v>21.115206000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1336.130000</v>
+        <v>1336.13</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.741000</v>
+        <v>-172.74100000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>76025.207314</v>
+        <v>76025.207313999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.118113</v>
+        <v>21.118113000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1354.370000</v>
+        <v>1354.37</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.877000</v>
+        <v>-170.87700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>76035.546422</v>
+        <v>76035.546421999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.120985</v>
+        <v>21.120985000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.502000</v>
+        <v>-180.50200000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>76045.639015</v>
+        <v>76045.639014999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.123789</v>
+        <v>21.123788999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.460000</v>
+        <v>1389.46</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.152000</v>
+        <v>-210.15199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>76055.898762</v>
+        <v>76055.898761999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.126639</v>
+        <v>21.126639000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.503000</v>
+        <v>-253.50299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>76066.493309</v>
+        <v>76066.493308999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.129581</v>
+        <v>21.129581000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.721000</v>
+        <v>-312.721</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>76077.591790</v>
+        <v>76077.591790000006</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.132664</v>
+        <v>21.132663999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1456.980000</v>
+        <v>1456.98</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.186000</v>
+        <v>-364.18599999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>76088.549675</v>
+        <v>76088.549675000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.135708</v>
+        <v>21.135708000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1543.760000</v>
+        <v>1543.76</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.011000</v>
+        <v>-609.01099999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>76099.585888</v>
+        <v>76099.585888000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.138774</v>
+        <v>21.138774000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1699.670000</v>
+        <v>1699.67</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.160000</v>
+        <v>-1047.1600000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>76111.436800</v>
+        <v>76111.436799999996</v>
       </c>
       <c r="BO2" s="1">
         <v>21.142066</v>
       </c>
       <c r="BP2" s="1">
-        <v>1995.510000</v>
+        <v>1995.51</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1803.880000</v>
+        <v>-1803.88</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>76121.781859</v>
+        <v>76121.781858999995</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.144939</v>
+        <v>21.144939000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.770000</v>
+        <v>2382.77</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2672.490000</v>
+        <v>-2672.49</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>76132.998884</v>
+        <v>76132.998884000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.148055</v>
+        <v>21.148054999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2864.970000</v>
+        <v>2864.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3622.120000</v>
+        <v>-3622.12</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>76144.171765</v>
+        <v>76144.171765000006</v>
       </c>
       <c r="CD2" s="1">
         <v>21.151159</v>
       </c>
       <c r="CE2" s="1">
-        <v>4267.840000</v>
+        <v>4267.84</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5884.160000</v>
+        <v>-5884.16</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>75973.180487</v>
+        <v>75973.180487000005</v>
       </c>
       <c r="B3" s="1">
-        <v>21.103661</v>
+        <v>21.103660999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-304.730000</v>
+        <v>-304.73</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>75983.556761</v>
@@ -753,1570 +1169,1570 @@
         <v>21.106544</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.630000</v>
+        <v>1273.6300000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.702000</v>
+        <v>-264.702</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>75994.022380</v>
+        <v>75994.022379999995</v>
       </c>
       <c r="L3" s="1">
         <v>21.109451</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.190000</v>
+        <v>1310.19</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.401000</v>
+        <v>-203.40100000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>76004.540510</v>
+        <v>76004.540510000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.112372</v>
+        <v>21.112372000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.450000</v>
+        <v>1322.45</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.042000</v>
+        <v>-186.042</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>76015.153440</v>
+        <v>76015.153439999995</v>
       </c>
       <c r="V3" s="1">
-        <v>21.115320</v>
+        <v>21.115320000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.808000</v>
+        <v>-172.80799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>76025.628417</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.118230</v>
+        <v>21.118230000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1354.410000</v>
+        <v>1354.41</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.867000</v>
+        <v>-170.86699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>76035.895604</v>
+        <v>76035.895604000005</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.121082</v>
+        <v>21.121082000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.030000</v>
+        <v>1368.03</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.491000</v>
+        <v>-180.49100000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>76046.027879</v>
+        <v>76046.027879000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.123897</v>
+        <v>21.123896999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.154000</v>
+        <v>-210.154</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>76056.289609</v>
+        <v>76056.289608999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.126747</v>
+        <v>21.126747000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.497000</v>
+        <v>-253.49700000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>76066.914908</v>
+        <v>76066.914908000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.129699</v>
+        <v>21.129698999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.744000</v>
+        <v>-312.74400000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>76078.005950</v>
+        <v>76078.005950000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.132779</v>
+        <v>21.132778999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1457.020000</v>
+        <v>1457.02</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.188000</v>
+        <v>-364.18799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>76088.989358</v>
+        <v>76088.989358000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.135830</v>
+        <v>21.135829999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1543.750000</v>
+        <v>1543.75</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.085000</v>
+        <v>-609.08500000000004</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>76099.960865</v>
+        <v>76099.960865000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.138878</v>
+        <v>21.138877999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1699.640000</v>
+        <v>1699.64</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1047.180000</v>
+        <v>-1047.18</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>76111.865872</v>
+        <v>76111.865871999995</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.142185</v>
+        <v>21.142185000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1995.430000</v>
+        <v>1995.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1803.970000</v>
+        <v>-1803.97</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>76122.284802</v>
+        <v>76122.284801999995</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.145079</v>
+        <v>21.145078999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2382.740000</v>
+        <v>2382.7399999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2672.820000</v>
+        <v>-2672.82</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>76133.470083</v>
+        <v>76133.470082999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.148186</v>
+        <v>21.148185999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2864.120000</v>
+        <v>2864.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3621.960000</v>
+        <v>-3621.96</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>76144.709430</v>
+        <v>76144.709430000003</v>
       </c>
       <c r="CD3" s="1">
         <v>21.151308</v>
       </c>
       <c r="CE3" s="1">
-        <v>4270.320000</v>
+        <v>4270.32</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5885.250000</v>
+        <v>-5885.25</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>75973.522732</v>
+        <v>75973.522731999998</v>
       </c>
       <c r="B4" s="1">
-        <v>21.103756</v>
+        <v>21.103756000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.140000</v>
+        <v>1248.1400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-304.740000</v>
+        <v>-304.74</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>75984.220904</v>
+        <v>75984.220904000002</v>
       </c>
       <c r="G4" s="1">
         <v>21.106728</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.080000</v>
+        <v>1273.08</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.498000</v>
+        <v>-263.49799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>75994.395836</v>
+        <v>75994.395835999996</v>
       </c>
       <c r="L4" s="1">
-        <v>21.109554</v>
+        <v>21.109553999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1310.120000</v>
+        <v>1310.1199999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.798000</v>
+        <v>-203.798</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>76004.925901</v>
+        <v>76004.925900999995</v>
       </c>
       <c r="Q4" s="1">
         <v>21.112479</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.480000</v>
+        <v>1322.48</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.980000</v>
+        <v>-185.98</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>76015.498127</v>
+        <v>76015.498126999999</v>
       </c>
       <c r="V4" s="1">
         <v>21.115416</v>
       </c>
       <c r="W4" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.580000</v>
+        <v>-172.58</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>76025.975660</v>
+        <v>76025.975659999996</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.118327</v>
+        <v>21.118327000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1354.380000</v>
+        <v>1354.38</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.705000</v>
+        <v>-170.70500000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>76036.240356</v>
+        <v>76036.240355999995</v>
       </c>
       <c r="AF4" s="1">
         <v>21.121178</v>
       </c>
       <c r="AG4" s="1">
-        <v>1367.960000</v>
+        <v>1367.96</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.538000</v>
+        <v>-180.53800000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>76046.461382</v>
+        <v>76046.461381999994</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.124017</v>
+        <v>21.124016999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.440000</v>
+        <v>1389.44</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.144000</v>
+        <v>-210.14400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>76056.719000</v>
+        <v>76056.718999999997</v>
       </c>
       <c r="AP4" s="1">
         <v>21.126866</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.513000</v>
+        <v>-253.51300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>76067.247228</v>
+        <v>76067.247227999993</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.129791</v>
+        <v>21.129791000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1437.180000</v>
+        <v>1437.18</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.742000</v>
+        <v>-312.74200000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>76078.362076</v>
+        <v>76078.362076000005</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.132878</v>
+        <v>21.132878000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1456.990000</v>
+        <v>1456.99</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.200000</v>
+        <v>-364.2</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>76089.349453</v>
+        <v>76089.349453000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.135930</v>
+        <v>21.135929999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1543.750000</v>
+        <v>1543.75</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.058000</v>
+        <v>-609.05799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>76100.334847</v>
+        <v>76100.334847000006</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.138982</v>
+        <v>21.138981999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1699.530000</v>
+        <v>1699.53</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.150000</v>
+        <v>-1047.1500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>76112.288466</v>
+        <v>76112.288465999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.142302</v>
+        <v>21.142302000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1995.390000</v>
+        <v>1995.39</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.170000</v>
+        <v>-1804.17</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>76122.721809</v>
+        <v>76122.721808999995</v>
       </c>
       <c r="BT4" s="1">
         <v>21.145201</v>
       </c>
       <c r="BU4" s="1">
-        <v>2382.550000</v>
+        <v>2382.5500000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2672.500000</v>
+        <v>-2672.5</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>76133.903091</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.148306</v>
+        <v>21.148306000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2863.450000</v>
+        <v>2863.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3622.290000</v>
+        <v>-3622.29</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>76145.235683</v>
+        <v>76145.235683000006</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.151454</v>
+        <v>21.151454000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4258.140000</v>
+        <v>4258.1400000000003</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5901.910000</v>
+        <v>-5901.91</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>75974.180421</v>
+        <v>75974.180420999997</v>
       </c>
       <c r="B5" s="1">
         <v>21.103939</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.030000</v>
+        <v>1248.03</v>
       </c>
       <c r="D5" s="1">
-        <v>-304.874000</v>
+        <v>-304.87400000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>75984.592274</v>
+        <v>75984.592273999995</v>
       </c>
       <c r="G5" s="1">
         <v>21.106831</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.770000</v>
+        <v>1273.77</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.213000</v>
+        <v>-264.21300000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>75994.741408</v>
+        <v>75994.741408000002</v>
       </c>
       <c r="L5" s="1">
-        <v>21.109650</v>
+        <v>21.109649999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1310.060000</v>
+        <v>1310.06</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.084000</v>
+        <v>-204.084</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>76005.273107</v>
+        <v>76005.273107000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.112576</v>
+        <v>21.112576000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.560000</v>
+        <v>1322.56</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.010000</v>
+        <v>-186.01</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>76015.840864</v>
+        <v>76015.840863999998</v>
       </c>
       <c r="V5" s="1">
-        <v>21.115511</v>
+        <v>21.115511000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.963000</v>
+        <v>-172.96299999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>76026.399698</v>
+        <v>76026.399697999994</v>
       </c>
       <c r="AA5" s="1">
         <v>21.118444</v>
       </c>
       <c r="AB5" s="1">
-        <v>1354.480000</v>
+        <v>1354.48</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.611000</v>
+        <v>-170.61099999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>76036.660437</v>
+        <v>76036.660436999999</v>
       </c>
       <c r="AF5" s="1">
         <v>21.121295</v>
       </c>
       <c r="AG5" s="1">
-        <v>1367.930000</v>
+        <v>1367.93</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.498000</v>
+        <v>-180.49799999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>76046.742615</v>
+        <v>76046.742614999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.124095</v>
+        <v>21.124095000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.460000</v>
+        <v>1389.46</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.175000</v>
+        <v>-210.17500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>76057.008842</v>
+        <v>76057.008841999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.126947</v>
+        <v>21.126947000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1411.930000</v>
+        <v>1411.93</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.534000</v>
+        <v>-253.53399999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>76067.610795</v>
+        <v>76067.610795000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.129892</v>
+        <v>21.129892000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1437.210000</v>
+        <v>1437.21</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.743000</v>
+        <v>-312.74299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>76078.722205</v>
+        <v>76078.722204999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.132978</v>
+        <v>21.132978000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.182000</v>
+        <v>-364.18200000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>76089.711037</v>
+        <v>76089.711037000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.136031</v>
+        <v>21.136030999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1543.730000</v>
+        <v>1543.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.050000</v>
+        <v>-609.04999999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>76101.086286</v>
+        <v>76101.086286000005</v>
       </c>
       <c r="BJ5" s="1">
         <v>21.139191</v>
       </c>
       <c r="BK5" s="1">
-        <v>1699.540000</v>
+        <v>1699.54</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.230000</v>
+        <v>-1047.23</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>76112.685727</v>
+        <v>76112.685727000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.142413</v>
+        <v>21.142413000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1995.170000</v>
+        <v>1995.17</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.220000</v>
+        <v>-1804.22</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>76123.145362</v>
+        <v>76123.145361999996</v>
       </c>
       <c r="BT5" s="1">
         <v>21.145318</v>
       </c>
       <c r="BU5" s="1">
-        <v>2382.460000</v>
+        <v>2382.46</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2672.760000</v>
+        <v>-2672.76</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>76134.327170</v>
+        <v>76134.327170000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.148424</v>
+        <v>21.148423999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2863.610000</v>
+        <v>2863.61</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3622.840000</v>
+        <v>-3622.84</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>76146.098755</v>
+        <v>76146.098754999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.151694</v>
+        <v>21.151693999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4262.870000</v>
+        <v>4262.87</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5884.600000</v>
+        <v>-5884.6</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>75974.547429</v>
+        <v>75974.547428999998</v>
       </c>
       <c r="B6" s="1">
-        <v>21.104041</v>
+        <v>21.104040999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.000000</v>
+        <v>1248</v>
       </c>
       <c r="D6" s="1">
-        <v>-304.774000</v>
+        <v>-304.774</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>75984.937656</v>
+        <v>75984.937655999995</v>
       </c>
       <c r="G6" s="1">
-        <v>21.106927</v>
+        <v>21.106926999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.220000</v>
+        <v>1273.22</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.206000</v>
+        <v>-264.20600000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>75995.094697</v>
+        <v>75995.094696999993</v>
       </c>
       <c r="L6" s="1">
-        <v>21.109749</v>
+        <v>21.109749000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.040000</v>
+        <v>1310.04</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.556000</v>
+        <v>-203.55600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>76005.622780</v>
+        <v>76005.622780000005</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.112673</v>
+        <v>21.112673000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.510000</v>
+        <v>1322.51</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.058000</v>
+        <v>-186.05799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>76016.271888</v>
+        <v>76016.271888000003</v>
       </c>
       <c r="V6" s="1">
         <v>21.115631</v>
       </c>
       <c r="W6" s="1">
-        <v>1336.250000</v>
+        <v>1336.25</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.796000</v>
+        <v>-172.79599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>76026.674481</v>
+        <v>76026.674480999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.118521</v>
+        <v>21.118521000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1354.410000</v>
+        <v>1354.41</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.807000</v>
+        <v>-170.80699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>76036.928803</v>
+        <v>76036.928803000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.121369</v>
+        <v>21.121369000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.481000</v>
+        <v>-180.48099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>76047.094278</v>
+        <v>76047.094278000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.124193</v>
+        <v>21.124193000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.149000</v>
+        <v>-210.149</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>76057.371881</v>
+        <v>76057.371880999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.127048</v>
+        <v>21.127047999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.507000</v>
+        <v>-253.50700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>76067.977834</v>
+        <v>76067.977834000005</v>
       </c>
       <c r="AU6" s="1">
         <v>21.129994</v>
       </c>
       <c r="AV6" s="1">
-        <v>1437.240000</v>
+        <v>1437.24</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.773000</v>
+        <v>-312.77300000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>76079.438891</v>
+        <v>76079.438890999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>21.133177</v>
       </c>
       <c r="BA6" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.179000</v>
+        <v>-364.17899999999997</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>76090.434204</v>
+        <v>76090.434204000005</v>
       </c>
       <c r="BE6" s="1">
         <v>21.136232</v>
       </c>
       <c r="BF6" s="1">
-        <v>1543.760000</v>
+        <v>1543.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.031000</v>
+        <v>-609.03099999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>76101.465230</v>
+        <v>76101.465230000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.139296</v>
+        <v>21.139296000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1699.540000</v>
+        <v>1699.54</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.150000</v>
+        <v>-1047.1500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>76113.106334</v>
+        <v>76113.106333999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.142530</v>
+        <v>21.142530000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1995.190000</v>
+        <v>1995.19</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.280000</v>
+        <v>-1804.28</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>76123.559024</v>
+        <v>76123.559024000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.145433</v>
+        <v>21.145433000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2382.600000</v>
+        <v>2382.6</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2672.570000</v>
+        <v>-2672.57</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>76135.065714</v>
+        <v>76135.065713999997</v>
       </c>
       <c r="BY6" s="1">
         <v>21.148629</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2864.510000</v>
+        <v>2864.51</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3622.020000</v>
+        <v>-3622.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>76146.314522</v>
+        <v>76146.314522000001</v>
       </c>
       <c r="CD6" s="1">
         <v>21.151754</v>
       </c>
       <c r="CE6" s="1">
-        <v>4265.960000</v>
+        <v>4265.96</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5883.770000</v>
+        <v>-5883.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>75974.892148</v>
+        <v>75974.892147999999</v>
       </c>
       <c r="B7" s="1">
-        <v>21.104137</v>
+        <v>21.104137000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-304.839000</v>
+        <v>-304.839</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>75985.282840</v>
+        <v>75985.28284</v>
       </c>
       <c r="G7" s="1">
-        <v>21.107023</v>
+        <v>21.107023000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.440000</v>
+        <v>1273.44</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.820000</v>
+        <v>-263.82</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>75995.524730</v>
+        <v>75995.524730000005</v>
       </c>
       <c r="L7" s="1">
-        <v>21.109868</v>
+        <v>21.109867999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.300000</v>
+        <v>1310.3</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.940000</v>
+        <v>-203.94</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>76006.046365</v>
+        <v>76006.046365000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.112791</v>
+        <v>21.112791000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.530000</v>
+        <v>1322.53</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.105000</v>
+        <v>-186.10499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>76016.538749</v>
+        <v>76016.538748999999</v>
       </c>
       <c r="V7" s="1">
-        <v>21.115705</v>
+        <v>21.115704999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1336.260000</v>
+        <v>1336.26</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.656000</v>
+        <v>-172.65600000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>76027.024657</v>
+        <v>76027.024657000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.118618</v>
+        <v>21.118618000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1354.430000</v>
+        <v>1354.43</v>
       </c>
       <c r="AC7" s="1">
-        <v>-171.058000</v>
+        <v>-171.05799999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>76037.272499</v>
+        <v>76037.272498999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.121465</v>
+        <v>21.121465000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1367.960000</v>
+        <v>1367.96</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.486000</v>
+        <v>-180.48599999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>76047.442965</v>
+        <v>76047.442964999995</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.124290</v>
+        <v>21.124289999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.430000</v>
+        <v>1389.43</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.174000</v>
+        <v>-210.17400000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>76057.732471</v>
+        <v>76057.732470999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.127148</v>
+        <v>21.127147999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.497000</v>
+        <v>-253.49700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>76068.705465</v>
+        <v>76068.705465000006</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.130196</v>
+        <v>21.130196000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1437.210000</v>
+        <v>1437.21</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.740000</v>
+        <v>-312.74</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>76079.798523</v>
+        <v>76079.798523000005</v>
       </c>
       <c r="AZ7" s="1">
         <v>21.133277</v>
       </c>
       <c r="BA7" s="1">
-        <v>1457.040000</v>
+        <v>1457.04</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.185000</v>
+        <v>-364.185</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>76090.790828</v>
+        <v>76090.790827999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.136331</v>
+        <v>21.136330999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1543.730000</v>
+        <v>1543.73</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.065000</v>
+        <v>-609.06500000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>76101.837725</v>
+        <v>76101.837725000005</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.139399</v>
+        <v>21.139399000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1699.520000</v>
+        <v>1699.52</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.260000</v>
+        <v>-1047.26</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>76113.818126</v>
+        <v>76113.818125999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.142727</v>
+        <v>21.142727000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1995.230000</v>
+        <v>1995.23</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.110000</v>
+        <v>-1804.11</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>76124.319392</v>
+        <v>76124.319392000005</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.145644</v>
+        <v>21.145644000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2382.680000</v>
+        <v>2382.6799999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2672.970000</v>
+        <v>-2672.97</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>76135.176818</v>
+        <v>76135.176818000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.148660</v>
+        <v>21.14866</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2864.540000</v>
+        <v>2864.54</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3622.490000</v>
+        <v>-3622.49</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>76146.831810</v>
+        <v>76146.831810000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.151898</v>
+        <v>21.151897999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4256.510000</v>
+        <v>4256.51</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5898.020000</v>
+        <v>-5898.02</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>75975.225957</v>
+        <v>75975.225957000002</v>
       </c>
       <c r="B8" s="1">
         <v>21.104229</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.190000</v>
+        <v>1248.19</v>
       </c>
       <c r="D8" s="1">
-        <v>-304.535000</v>
+        <v>-304.53500000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>75985.711880</v>
+        <v>75985.711880000003</v>
       </c>
       <c r="G8" s="1">
         <v>21.107142</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.780000</v>
+        <v>1273.78</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.788000</v>
+        <v>-263.78800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>75995.795545</v>
+        <v>75995.795545000001</v>
       </c>
       <c r="L8" s="1">
-        <v>21.109943</v>
+        <v>21.109943000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.050000</v>
+        <v>1310.05</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.800000</v>
+        <v>-203.8</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>76006.337515</v>
+        <v>76006.337515000007</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.112872</v>
+        <v>21.112871999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.550000</v>
+        <v>1322.55</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.081000</v>
+        <v>-186.08099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>76016.882461</v>
+        <v>76016.882461000001</v>
       </c>
       <c r="V8" s="1">
-        <v>21.115801</v>
+        <v>21.115801000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1335.980000</v>
+        <v>1335.98</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.644000</v>
+        <v>-172.64400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>76027.372848</v>
+        <v>76027.372847999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.118715</v>
+        <v>21.118715000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1354.400000</v>
+        <v>1354.4</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.742000</v>
+        <v>-170.74199999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>76037.618210</v>
+        <v>76037.618210000001</v>
       </c>
       <c r="AF8" s="1">
         <v>21.121561</v>
       </c>
       <c r="AG8" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.532000</v>
+        <v>-180.53200000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>76048.138356</v>
+        <v>76048.138355999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.124483</v>
+        <v>21.124483000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.140000</v>
+        <v>-210.14</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>76058.456134</v>
+        <v>76058.456133999993</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.127349</v>
+        <v>21.127348999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1411.910000</v>
+        <v>1411.91</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.519000</v>
+        <v>-253.51900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>76069.093336</v>
+        <v>76069.093336000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.130304</v>
+        <v>21.130303999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1437.190000</v>
+        <v>1437.19</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.728000</v>
+        <v>-312.72800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>76080.157594</v>
+        <v>76080.157594000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.133377</v>
+        <v>21.133376999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1457.010000</v>
+        <v>1457.01</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.190000</v>
+        <v>-364.19</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>76091.157372</v>
+        <v>76091.157372000001</v>
       </c>
       <c r="BE8" s="1">
         <v>21.136433</v>
       </c>
       <c r="BF8" s="1">
-        <v>1543.720000</v>
+        <v>1543.72</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.032000</v>
+        <v>-609.03200000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>76102.531741</v>
+        <v>76102.531740999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>21.139592</v>
       </c>
       <c r="BK8" s="1">
-        <v>1699.530000</v>
+        <v>1699.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1047.160000</v>
+        <v>-1047.1600000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>76113.930539</v>
+        <v>76113.930538999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.142758</v>
+        <v>21.142758000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1995.120000</v>
+        <v>1995.12</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.100000</v>
+        <v>-1804.1</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>76124.430496</v>
+        <v>76124.430496000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.145675</v>
+        <v>21.145675000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2382.550000</v>
+        <v>2382.5500000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2672.590000</v>
+        <v>-2672.59</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>76135.617762</v>
+        <v>76135.617761999994</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.148783</v>
+        <v>21.148783000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2863.370000</v>
+        <v>2863.37</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3622.270000</v>
+        <v>-3622.27</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>76147.350625</v>
+        <v>76147.350625000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.152042</v>
+        <v>21.152042000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4255.850000</v>
+        <v>4255.8500000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5897.220000</v>
+        <v>-5897.22</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>75975.705589</v>
+        <v>75975.705589000005</v>
       </c>
       <c r="B9" s="1">
-        <v>21.104363</v>
+        <v>21.104362999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-304.855000</v>
+        <v>-304.85500000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>75985.977240</v>
+        <v>75985.977239999993</v>
       </c>
       <c r="G9" s="1">
-        <v>21.107216</v>
+        <v>21.107216000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.810000</v>
+        <v>1273.81</v>
       </c>
       <c r="I9" s="1">
-        <v>-263.212000</v>
+        <v>-263.21199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>75996.141317</v>
+        <v>75996.141317000001</v>
       </c>
       <c r="L9" s="1">
         <v>21.110039</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.080000</v>
+        <v>1310.08</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.678000</v>
+        <v>-203.678</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>76006.688683</v>
@@ -2325,814 +2741,814 @@
         <v>21.112969</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.540000</v>
+        <v>1322.54</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.041000</v>
+        <v>-186.041</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>76017.226686</v>
+        <v>76017.226685999995</v>
       </c>
       <c r="V9" s="1">
-        <v>21.115896</v>
+        <v>21.115895999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.781000</v>
+        <v>-172.78100000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>76028.068277</v>
+        <v>76028.068276999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.118908</v>
+        <v>21.118908000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1354.420000</v>
+        <v>1354.42</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.790000</v>
+        <v>-170.79</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>76038.303186</v>
+        <v>76038.303186000005</v>
       </c>
       <c r="AF9" s="1">
         <v>21.121751</v>
       </c>
       <c r="AG9" s="1">
-        <v>1367.960000</v>
+        <v>1367.96</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.528000</v>
+        <v>-180.52799999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>76048.487579</v>
+        <v>76048.487578999993</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.124580</v>
+        <v>21.124580000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.440000</v>
+        <v>1389.44</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.158000</v>
+        <v>-210.15799999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>76058.811766</v>
+        <v>76058.811765999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.127448</v>
+        <v>21.127448000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.458000</v>
+        <v>-253.458</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>76069.460376</v>
+        <v>76069.460376000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.130406</v>
+        <v>21.130406000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1437.220000</v>
+        <v>1437.22</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.723000</v>
+        <v>-312.72300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>76080.831162</v>
+        <v>76080.831162000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>21.133564</v>
       </c>
       <c r="BA9" s="1">
-        <v>1457.030000</v>
+        <v>1457.03</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>76091.834447</v>
+        <v>76091.834447000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.136621</v>
+        <v>21.136621000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1543.740000</v>
+        <v>1543.74</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.020000</v>
+        <v>-609.02</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>76102.999388</v>
+        <v>76102.999387999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.139722</v>
+        <v>21.139721999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1699.560000</v>
+        <v>1699.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.160000</v>
+        <v>-1047.1600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>76114.348354</v>
+        <v>76114.348354000002</v>
       </c>
       <c r="BO9" s="1">
         <v>21.142875</v>
       </c>
       <c r="BP9" s="1">
-        <v>1995.110000</v>
+        <v>1995.11</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.180000</v>
+        <v>-1804.18</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>76124.856064</v>
+        <v>76124.856064000007</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.145793</v>
+        <v>21.145793000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.610000</v>
+        <v>2382.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2672.760000</v>
+        <v>-2672.76</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>76136.050272</v>
+        <v>76136.050271999993</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.148903</v>
+        <v>21.148903000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2863.770000</v>
+        <v>2863.77</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3622.690000</v>
+        <v>-3622.69</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>76147.899201</v>
+        <v>76147.899200999993</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.152194</v>
+        <v>21.152194000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4262.930000</v>
+        <v>4262.93</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5883.750000</v>
+        <v>-5883.75</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>75975.914405</v>
+        <v>75975.914405000003</v>
       </c>
       <c r="B10" s="1">
-        <v>21.104421</v>
+        <v>21.104420999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D10" s="1">
-        <v>-304.508000</v>
+        <v>-304.50799999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>75986.324438</v>
+        <v>75986.324437999996</v>
       </c>
       <c r="G10" s="1">
         <v>21.107312</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.330000</v>
+        <v>1273.33</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.615000</v>
+        <v>-264.61500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>75996.485480</v>
+        <v>75996.485480000003</v>
       </c>
       <c r="L10" s="1">
         <v>21.110135</v>
       </c>
       <c r="M10" s="1">
-        <v>1310.350000</v>
+        <v>1310.3499999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.705000</v>
+        <v>-203.70500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>76007.036378</v>
+        <v>76007.036378000004</v>
       </c>
       <c r="Q10" s="1">
         <v>21.113066</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.460000</v>
+        <v>1322.46</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.943000</v>
+        <v>-185.94300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>76017.912684</v>
+        <v>76017.912683999995</v>
       </c>
       <c r="V10" s="1">
         <v>21.116087</v>
       </c>
       <c r="W10" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.906000</v>
+        <v>-172.90600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>76028.414446</v>
+        <v>76028.414445999995</v>
       </c>
       <c r="AA10" s="1">
         <v>21.119004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1354.450000</v>
+        <v>1354.45</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.746000</v>
+        <v>-170.74600000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>76038.645457</v>
+        <v>76038.645457000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.121846</v>
+        <v>21.121846000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1367.970000</v>
+        <v>1367.97</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.513000</v>
+        <v>-180.51300000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>76048.835235</v>
+        <v>76048.835235000006</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.124676</v>
+        <v>21.124676000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.144000</v>
+        <v>-210.14400000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>76059.482853</v>
+        <v>76059.482852999994</v>
       </c>
       <c r="AP10" s="1">
         <v>21.127634</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.495000</v>
+        <v>-253.495</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>76070.144359</v>
+        <v>76070.144358999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.130596</v>
+        <v>21.130596000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.753000</v>
+        <v>-312.75299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>76081.233724</v>
+        <v>76081.233724000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.133676</v>
+        <v>21.133676000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1457.020000</v>
+        <v>1457.02</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.167000</v>
+        <v>-364.16699999999997</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>76092.264937</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.136740</v>
+        <v>21.13674</v>
       </c>
       <c r="BF10" s="1">
-        <v>1543.700000</v>
+        <v>1543.7</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.044000</v>
+        <v>-609.04399999999998</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>76103.387730</v>
+        <v>76103.387730000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.139830</v>
+        <v>21.13983</v>
       </c>
       <c r="BK10" s="1">
-        <v>1699.520000</v>
+        <v>1699.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.170000</v>
+        <v>-1047.17</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>76114.742173</v>
+        <v>76114.742173000006</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.142984</v>
+        <v>21.142983999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1995.030000</v>
+        <v>1995.03</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1803.960000</v>
+        <v>-1803.96</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>76125.621421</v>
+        <v>76125.621421000003</v>
       </c>
       <c r="BT10" s="1">
         <v>21.146006</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.870000</v>
+        <v>2382.87</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2672.650000</v>
+        <v>-2672.65</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>76136.476831</v>
+        <v>76136.476831000007</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.149021</v>
+        <v>21.149021000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2864.000000</v>
+        <v>2864</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3622.210000</v>
+        <v>-3622.21</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>76148.430416</v>
+        <v>76148.430416000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.152342</v>
+        <v>21.152342000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4256.890000</v>
+        <v>4256.8900000000003</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5899.910000</v>
+        <v>-5899.91</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>75976.255155</v>
+        <v>75976.255155000006</v>
       </c>
       <c r="B11" s="1">
-        <v>21.104515</v>
+        <v>21.104514999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-304.703000</v>
+        <v>-304.70299999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>75986.668661</v>
+        <v>75986.668661000003</v>
       </c>
       <c r="G11" s="1">
         <v>21.107408</v>
       </c>
       <c r="H11" s="1">
-        <v>1274.590000</v>
+        <v>1274.5899999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.226000</v>
+        <v>-264.226</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>75997.179880</v>
+        <v>75997.179879999996</v>
       </c>
       <c r="L11" s="1">
-        <v>21.110328</v>
+        <v>21.110327999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.390000</v>
+        <v>1310.3900000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-204.050000</v>
+        <v>-204.05</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>76007.732762</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.113259</v>
+        <v>21.113258999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.560000</v>
+        <v>1322.56</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.009000</v>
+        <v>-186.00899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>76018.255883</v>
+        <v>76018.255883000005</v>
       </c>
       <c r="V11" s="1">
-        <v>21.116182</v>
+        <v>21.116181999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1336.310000</v>
+        <v>1336.31</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.663000</v>
+        <v>-172.66300000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>76028.768589</v>
+        <v>76028.768588999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.119102</v>
+        <v>21.119102000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1354.280000</v>
+        <v>1354.28</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.792000</v>
+        <v>-170.792</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>76038.991136</v>
+        <v>76038.991135999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.121942</v>
+        <v>21.121942000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.512000</v>
+        <v>-180.512</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>76049.499380</v>
+        <v>76049.499379999994</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.124861</v>
+        <v>21.124860999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.152000</v>
+        <v>-210.15199999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>76059.922804</v>
+        <v>76059.922804000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.127756</v>
+        <v>21.127756000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.480000</v>
+        <v>-253.48</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>76070.585334</v>
+        <v>76070.585334000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.130718</v>
+        <v>21.130718000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1437.220000</v>
+        <v>1437.22</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.733000</v>
+        <v>-312.733</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>76081.617816</v>
+        <v>76081.617815999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.133783</v>
+        <v>21.133783000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1457.020000</v>
+        <v>1457.02</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.195000</v>
+        <v>-364.19499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>76092.624537</v>
+        <v>76092.624536999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.136840</v>
+        <v>21.136839999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1543.750000</v>
+        <v>1543.75</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.018000</v>
+        <v>-609.01800000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>76103.764187</v>
+        <v>76103.764186999993</v>
       </c>
       <c r="BJ11" s="1">
         <v>21.139934</v>
       </c>
       <c r="BK11" s="1">
-        <v>1699.550000</v>
+        <v>1699.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1047.070000</v>
+        <v>-1047.07</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>76115.165764</v>
+        <v>76115.165764000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.143102</v>
+        <v>21.143101999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1995.120000</v>
+        <v>1995.12</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1804.150000</v>
+        <v>-1804.15</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>76126.134254</v>
+        <v>76126.134254000004</v>
       </c>
       <c r="BT11" s="1">
         <v>21.146148</v>
       </c>
       <c r="BU11" s="1">
-        <v>2382.890000</v>
+        <v>2382.89</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2672.630000</v>
+        <v>-2672.63</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>76136.893966</v>
+        <v>76136.893966000003</v>
       </c>
       <c r="BY11" s="1">
         <v>21.149137</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2863.440000</v>
+        <v>2863.44</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3622.060000</v>
+        <v>-3622.06</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>76148.950222</v>
+        <v>76148.950221999999</v>
       </c>
       <c r="CD11" s="1">
         <v>21.152486</v>
       </c>
       <c r="CE11" s="1">
-        <v>4274.020000</v>
+        <v>4274.0200000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5900.960000</v>
+        <v>-5900.96</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>75976.938674</v>
+        <v>75976.938674000005</v>
       </c>
       <c r="B12" s="1">
-        <v>21.104705</v>
+        <v>21.104704999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.930000</v>
+        <v>1247.93</v>
       </c>
       <c r="D12" s="1">
-        <v>-304.767000</v>
+        <v>-304.767</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>75987.364085</v>
+        <v>75987.364084999994</v>
       </c>
       <c r="G12" s="1">
-        <v>21.107601</v>
+        <v>21.107600999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.250000</v>
+        <v>1274.25</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.017000</v>
+        <v>-264.017</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>75997.532535</v>
+        <v>75997.532535000006</v>
       </c>
       <c r="L12" s="1">
         <v>21.110426</v>
       </c>
       <c r="M12" s="1">
-        <v>1309.950000</v>
+        <v>1309.95</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.692000</v>
+        <v>-203.69200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>76008.082974</v>
+        <v>76008.082974000004</v>
       </c>
       <c r="Q12" s="1">
         <v>21.113356</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.001000</v>
+        <v>-186.001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>76018.598123</v>
+        <v>76018.598123000003</v>
       </c>
       <c r="V12" s="1">
         <v>21.116277</v>
       </c>
       <c r="W12" s="1">
-        <v>1336.180000</v>
+        <v>1336.18</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.689000</v>
+        <v>-172.68899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>76029.427277</v>
+        <v>76029.427276999995</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.119285</v>
+        <v>21.119285000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1354.410000</v>
+        <v>1354.41</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.801000</v>
+        <v>-170.80099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>76039.649823</v>
@@ -3141,73 +3557,73 @@
         <v>21.122125</v>
       </c>
       <c r="AG12" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.520000</v>
+        <v>-180.52</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>76049.879810</v>
+        <v>76049.879809999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.124967</v>
+        <v>21.124967000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.440000</v>
+        <v>1389.44</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.159000</v>
+        <v>-210.15899999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>76060.282435</v>
+        <v>76060.282435000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.127856</v>
+        <v>21.127856000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.472000</v>
+        <v>-253.47200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>76070.953334</v>
+        <v>76070.953334000005</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.130820</v>
+        <v>21.13082</v>
       </c>
       <c r="AV12" s="1">
-        <v>1437.170000</v>
+        <v>1437.17</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.741000</v>
+        <v>-312.74099999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>76081.975431</v>
+        <v>76081.975430999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>21.133882</v>
       </c>
       <c r="BA12" s="1">
-        <v>1456.990000</v>
+        <v>1456.99</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.160000</v>
+        <v>-364.16</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>76093.048616</v>
@@ -3216,315 +3632,315 @@
         <v>21.136958</v>
       </c>
       <c r="BF12" s="1">
-        <v>1543.720000</v>
+        <v>1543.72</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.003000</v>
+        <v>-609.00300000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>76104.188266</v>
+        <v>76104.188265999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.140052</v>
+        <v>21.140052000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1699.510000</v>
+        <v>1699.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1047.180000</v>
+        <v>-1047.18</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>76115.564015</v>
+        <v>76115.564014999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.143212</v>
+        <v>21.143211999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1995.110000</v>
+        <v>1995.11</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.070000</v>
+        <v>-1804.07</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>76126.569740</v>
+        <v>76126.569740000006</v>
       </c>
       <c r="BT12" s="1">
         <v>21.146269</v>
       </c>
       <c r="BU12" s="1">
-        <v>2382.720000</v>
+        <v>2382.7199999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2672.350000</v>
+        <v>-2672.35</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>76137.320031</v>
+        <v>76137.320030999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.149256</v>
+        <v>21.149256000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2863.720000</v>
+        <v>2863.72</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3622.660000</v>
+        <v>-3622.66</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>76149.468046</v>
+        <v>76149.468045999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.152630</v>
+        <v>21.152629999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>4270.060000</v>
+        <v>4270.0600000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5883.390000</v>
+        <v>-5883.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>75977.293777</v>
+        <v>75977.293776999999</v>
       </c>
       <c r="B13" s="1">
-        <v>21.104804</v>
+        <v>21.104804000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D13" s="1">
-        <v>-304.582000</v>
+        <v>-304.58199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>75987.707285</v>
+        <v>75987.707284999997</v>
       </c>
       <c r="G13" s="1">
-        <v>21.107696</v>
+        <v>21.107696000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.490000</v>
+        <v>1273.49</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.466000</v>
+        <v>-264.46600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>75997.877783</v>
+        <v>75997.877783000004</v>
       </c>
       <c r="L13" s="1">
         <v>21.110522</v>
       </c>
       <c r="M13" s="1">
-        <v>1310.160000</v>
+        <v>1310.1600000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.497000</v>
+        <v>-203.49700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>76008.430634</v>
+        <v>76008.430634000004</v>
       </c>
       <c r="Q13" s="1">
         <v>21.113453</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.520000</v>
+        <v>1322.52</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.046000</v>
+        <v>-186.04599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>76019.257834</v>
+        <v>76019.257834000004</v>
       </c>
       <c r="V13" s="1">
-        <v>21.116461</v>
+        <v>21.116461000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1336.070000</v>
+        <v>1336.07</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.433000</v>
+        <v>-172.43299999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>76029.813692</v>
+        <v>76029.813691999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.119393</v>
+        <v>21.119392999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1354.250000</v>
+        <v>1354.25</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.795000</v>
+        <v>-170.79499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>76040.020831</v>
+        <v>76040.020831000002</v>
       </c>
       <c r="AF13" s="1">
         <v>21.122228</v>
       </c>
       <c r="AG13" s="1">
-        <v>1367.980000</v>
+        <v>1367.98</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.512000</v>
+        <v>-180.512</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>76050.231969</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.125064</v>
+        <v>21.125063999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.148000</v>
+        <v>-210.148</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>76060.641507</v>
+        <v>76060.641506999993</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.127956</v>
+        <v>21.127956000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.527000</v>
+        <v>-253.52699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>76071.316901</v>
+        <v>76071.316900999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.130921</v>
+        <v>21.130921000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1437.210000</v>
+        <v>1437.21</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.733000</v>
+        <v>-312.733</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>76082.402488</v>
+        <v>76082.402488000007</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.134001</v>
+        <v>21.134001000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.179000</v>
+        <v>-364.17899999999997</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>76093.346216</v>
+        <v>76093.346216000005</v>
       </c>
       <c r="BE13" s="1">
         <v>21.137041</v>
       </c>
       <c r="BF13" s="1">
-        <v>1543.730000</v>
+        <v>1543.73</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.011000</v>
+        <v>-609.01099999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>76104.513145</v>
+        <v>76104.513145000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.140143</v>
+        <v>21.140142999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1699.540000</v>
+        <v>1699.54</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.120000</v>
+        <v>-1047.1199999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>76115.985611</v>
+        <v>76115.985610999996</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.143329</v>
+        <v>21.143329000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1995.140000</v>
+        <v>1995.14</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1803.970000</v>
+        <v>-1803.97</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>76126.997819</v>
+        <v>76126.997818999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.146388</v>
+        <v>21.146388000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>2382.660000</v>
+        <v>2382.66</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2672.770000</v>
+        <v>-2672.77</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>76137.738157</v>
@@ -3533,2131 +3949,2131 @@
         <v>21.149372</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2864.050000</v>
+        <v>2864.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3622.780000</v>
+        <v>-3622.78</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>76149.985884</v>
+        <v>76149.985883999994</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.152774</v>
+        <v>21.152774000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4275.810000</v>
+        <v>4275.8100000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5890.080000</v>
+        <v>-5890.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>75977.632051</v>
+        <v>75977.632050999993</v>
       </c>
       <c r="B14" s="1">
-        <v>21.104898</v>
+        <v>21.104897999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.940000</v>
+        <v>1247.94</v>
       </c>
       <c r="D14" s="1">
-        <v>-304.810000</v>
+        <v>-304.81</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>75988.052499</v>
+        <v>75988.052498999998</v>
       </c>
       <c r="G14" s="1">
         <v>21.107792</v>
       </c>
       <c r="H14" s="1">
-        <v>1273.690000</v>
+        <v>1273.69</v>
       </c>
       <c r="I14" s="1">
-        <v>-263.854000</v>
+        <v>-263.85399999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>75998.551355</v>
+        <v>75998.551355000003</v>
       </c>
       <c r="L14" s="1">
         <v>21.110709</v>
       </c>
       <c r="M14" s="1">
-        <v>1310.410000</v>
+        <v>1310.4100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.735000</v>
+        <v>-203.73500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>76009.149833</v>
+        <v>76009.149833000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.113653</v>
+        <v>21.113652999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.037000</v>
+        <v>-186.03700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>76019.629338</v>
+        <v>76019.629337999999</v>
       </c>
       <c r="V14" s="1">
         <v>21.116564</v>
       </c>
       <c r="W14" s="1">
-        <v>1336.080000</v>
+        <v>1336.08</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.870000</v>
+        <v>-172.87</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>76030.161852</v>
+        <v>76030.161852000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.119489</v>
+        <v>21.119489000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.210000</v>
+        <v>1354.21</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.760000</v>
+        <v>-170.76</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>76040.363566</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.122323</v>
+        <v>21.122323000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1367.980000</v>
+        <v>1367.98</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.509000</v>
+        <v>-180.50899999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>76050.581154</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.125161</v>
+        <v>21.125160999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.460000</v>
+        <v>1389.46</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.148000</v>
+        <v>-210.148</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>76061.058643</v>
+        <v>76061.058642999997</v>
       </c>
       <c r="AP14" s="1">
         <v>21.128072</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.523000</v>
+        <v>-253.523</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>76071.738005</v>
+        <v>76071.738005000007</v>
       </c>
       <c r="AU14" s="1">
         <v>21.131038</v>
       </c>
       <c r="AV14" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.732000</v>
+        <v>-312.73200000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>76082.694668</v>
+        <v>76082.694667999996</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.134082</v>
+        <v>21.134081999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1456.980000</v>
+        <v>1456.98</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.128000</v>
+        <v>-364.12799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>76093.707304</v>
+        <v>76093.707303999996</v>
       </c>
       <c r="BE14" s="1">
         <v>21.137141</v>
       </c>
       <c r="BF14" s="1">
-        <v>1543.750000</v>
+        <v>1543.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.959000</v>
+        <v>-608.95899999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>76104.898072</v>
+        <v>76104.898071999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.140249</v>
+        <v>21.140249000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1699.520000</v>
+        <v>1699.52</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.120000</v>
+        <v>-1047.1199999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>76116.383402</v>
+        <v>76116.383402000007</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.143440</v>
+        <v>21.143439999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1995.030000</v>
+        <v>1995.03</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.190000</v>
+        <v>-1804.19</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>76127.425835</v>
+        <v>76127.425835000002</v>
       </c>
       <c r="BT14" s="1">
         <v>21.146507</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.800000</v>
+        <v>2382.8000000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2672.310000</v>
+        <v>-2672.31</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>76138.185054</v>
+        <v>76138.185054000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.149496</v>
+        <v>21.149495999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.220000</v>
+        <v>2864.22</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3622.080000</v>
+        <v>-3622.08</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>76150.539404</v>
+        <v>76150.539403999996</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.152928</v>
+        <v>21.152927999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4274.480000</v>
+        <v>4274.4799999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5900.920000</v>
+        <v>-5900.92</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>75978.297680</v>
+        <v>75978.297680000003</v>
       </c>
       <c r="B15" s="1">
         <v>21.105083</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.910000</v>
+        <v>1247.9100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-304.482000</v>
+        <v>-304.48200000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>75988.700770</v>
+        <v>75988.700769999996</v>
       </c>
       <c r="G15" s="1">
         <v>21.107972</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.460000</v>
+        <v>1273.46</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.304000</v>
+        <v>-264.30399999999997</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>75998.913893</v>
+        <v>75998.913893000004</v>
       </c>
       <c r="L15" s="1">
         <v>21.110809</v>
       </c>
       <c r="M15" s="1">
-        <v>1310.300000</v>
+        <v>1310.3</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.698000</v>
+        <v>-203.69800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>76009.475207</v>
+        <v>76009.475206999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.113743</v>
+        <v>21.113742999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.480000</v>
+        <v>1322.48</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.967000</v>
+        <v>-185.96700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>76019.973546</v>
+        <v>76019.973545999994</v>
       </c>
       <c r="V15" s="1">
-        <v>21.116659</v>
+        <v>21.116658999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1336.160000</v>
+        <v>1336.16</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.688000</v>
+        <v>-172.68799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>76030.508555</v>
+        <v>76030.508554999993</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.119586</v>
+        <v>21.119586000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1354.340000</v>
+        <v>1354.34</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.766000</v>
+        <v>-170.76599999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>76040.707294</v>
+        <v>76040.707294000007</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.122419</v>
+        <v>21.122419000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1367.920000</v>
+        <v>1367.92</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.465000</v>
+        <v>-180.465</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>76051.004737</v>
+        <v>76051.004736999996</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.125279</v>
+        <v>21.125278999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.450000</v>
+        <v>1389.45</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.161000</v>
+        <v>-210.161</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>76061.363186</v>
+        <v>76061.363186000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.128156</v>
+        <v>21.128156000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.501000</v>
+        <v>-253.501</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>76072.047013</v>
+        <v>76072.047013000003</v>
       </c>
       <c r="AU15" s="1">
         <v>21.131124</v>
       </c>
       <c r="AV15" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.741000</v>
+        <v>-312.74099999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>76083.055222</v>
+        <v>76083.055221999995</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.134182</v>
+        <v>21.134181999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>76094.068391</v>
+        <v>76094.068390999993</v>
       </c>
       <c r="BE15" s="1">
         <v>21.137241</v>
       </c>
       <c r="BF15" s="1">
-        <v>1543.690000</v>
+        <v>1543.69</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.983000</v>
+        <v>-608.98299999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>76105.286906</v>
+        <v>76105.286905999994</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.140357</v>
+        <v>21.140357000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1699.540000</v>
+        <v>1699.54</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.060000</v>
+        <v>-1047.06</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>76116.812441</v>
+        <v>76116.812441000002</v>
       </c>
       <c r="BO15" s="1">
         <v>21.143559</v>
       </c>
       <c r="BP15" s="1">
-        <v>1995.080000</v>
+        <v>1995.08</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1804.060000</v>
+        <v>-1804.06</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>76127.841515</v>
+        <v>76127.841514999993</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.146623</v>
+        <v>21.146623000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2382.740000</v>
+        <v>2382.7399999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2672.490000</v>
+        <v>-2672.49</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>76138.608140</v>
+        <v>76138.608139999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.149613</v>
+        <v>21.149612999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2863.600000</v>
+        <v>2863.6</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3622.090000</v>
+        <v>-3622.09</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>76151.069628</v>
+        <v>76151.069627999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.153075</v>
+        <v>21.153075000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4270.700000</v>
+        <v>4270.7</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5883.120000</v>
+        <v>-5883.12</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>75978.657280</v>
+        <v>75978.657279999999</v>
       </c>
       <c r="B16" s="1">
         <v>21.105183</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.010000</v>
+        <v>1248.01</v>
       </c>
       <c r="D16" s="1">
-        <v>-304.604000</v>
+        <v>-304.60399999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>75989.085170</v>
+        <v>75989.085170000006</v>
       </c>
       <c r="G16" s="1">
         <v>21.108079</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.990000</v>
+        <v>1273.99</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.902000</v>
+        <v>-263.90199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>75999.258117</v>
+        <v>75999.258117000005</v>
       </c>
       <c r="L16" s="1">
-        <v>21.110905</v>
+        <v>21.110904999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1309.900000</v>
+        <v>1309.9000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.748000</v>
+        <v>-203.74799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>76009.824391</v>
+        <v>76009.824391000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.113840</v>
+        <v>21.11384</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.490000</v>
+        <v>1322.49</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.911000</v>
+        <v>-185.911</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>76020.322413</v>
+        <v>76020.322413000002</v>
       </c>
       <c r="V16" s="1">
-        <v>21.116756</v>
+        <v>21.116755999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1336.250000</v>
+        <v>1336.25</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.981000</v>
+        <v>-172.98099999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>76030.937596</v>
+        <v>76030.937596000003</v>
       </c>
       <c r="AA16" s="1">
         <v>21.119705</v>
       </c>
       <c r="AB16" s="1">
-        <v>1354.290000</v>
+        <v>1354.29</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.850000</v>
+        <v>-170.85</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>76041.145758</v>
+        <v>76041.145757999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.122540</v>
+        <v>21.122540000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1367.880000</v>
+        <v>1367.88</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.524000</v>
+        <v>-180.524</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>76051.283520</v>
+        <v>76051.283519999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.125357</v>
+        <v>21.125357000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.470000</v>
+        <v>1389.47</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.156000</v>
+        <v>-210.15600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>76061.722322</v>
+        <v>76061.722322000001</v>
       </c>
       <c r="AP16" s="1">
         <v>21.128256</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1411.900000</v>
+        <v>1411.9</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.513000</v>
+        <v>-253.51300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>76072.410613</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.131225</v>
+        <v>21.131225000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1437.210000</v>
+        <v>1437.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.699000</v>
+        <v>-312.69900000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>76083.411850</v>
+        <v>76083.411850000004</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.134281</v>
+        <v>21.134281000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1456.990000</v>
+        <v>1456.99</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.153000</v>
+        <v>-364.15300000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>76094.789612</v>
+        <v>76094.789611999993</v>
       </c>
       <c r="BE16" s="1">
         <v>21.137442</v>
       </c>
       <c r="BF16" s="1">
-        <v>1543.700000</v>
+        <v>1543.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.979000</v>
+        <v>-608.97900000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>76106.036359</v>
+        <v>76106.036359000005</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.140566</v>
       </c>
       <c r="BK16" s="1">
-        <v>1699.470000</v>
+        <v>1699.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.080000</v>
+        <v>-1047.08</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>76117.196912</v>
+        <v>76117.196911999999</v>
       </c>
       <c r="BO16" s="1">
         <v>21.143666</v>
       </c>
       <c r="BP16" s="1">
-        <v>1995.130000</v>
+        <v>1995.13</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.070000</v>
+        <v>-1804.07</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>76128.270523</v>
+        <v>76128.270522999999</v>
       </c>
       <c r="BT16" s="1">
         <v>21.146742</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.640000</v>
+        <v>2382.64</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2672.230000</v>
+        <v>-2672.23</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>76139.029245</v>
+        <v>76139.029244999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.149730</v>
+        <v>21.149730000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.400000</v>
+        <v>2863.4</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3622.140000</v>
+        <v>-3622.14</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>76151.905883</v>
+        <v>76151.905882999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.153307</v>
+        <v>21.153307000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4255.380000</v>
+        <v>4255.38</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5889.260000</v>
+        <v>-5889.26</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>75979.002992</v>
+        <v>75979.002991999994</v>
       </c>
       <c r="B17" s="1">
-        <v>21.105279</v>
+        <v>21.105278999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.710000</v>
+        <v>1247.71</v>
       </c>
       <c r="D17" s="1">
-        <v>-304.666000</v>
+        <v>-304.666</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>75989.422450</v>
+        <v>75989.422449999998</v>
       </c>
       <c r="G17" s="1">
-        <v>21.108173</v>
+        <v>21.108173000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.430000</v>
+        <v>1273.43</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.742000</v>
+        <v>-263.74200000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>75999.608293</v>
+        <v>75999.608292999998</v>
       </c>
       <c r="L17" s="1">
-        <v>21.111002</v>
+        <v>21.111001999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.160000</v>
+        <v>1310.1600000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.564000</v>
+        <v>-203.56399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>76010.243046</v>
+        <v>76010.243046000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.113956</v>
+        <v>21.113956000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.570000</v>
+        <v>1322.57</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.967000</v>
+        <v>-185.96700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>76020.748280</v>
+        <v>76020.74828</v>
       </c>
       <c r="V17" s="1">
         <v>21.116875</v>
       </c>
       <c r="W17" s="1">
-        <v>1336.410000</v>
+        <v>1336.41</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.679000</v>
+        <v>-172.679</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>76031.209930</v>
+        <v>76031.209929999997</v>
       </c>
       <c r="AA17" s="1">
         <v>21.119781</v>
       </c>
       <c r="AB17" s="1">
-        <v>1354.390000</v>
+        <v>1354.39</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.718000</v>
+        <v>-170.71799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>76041.415581</v>
+        <v>76041.415580999994</v>
       </c>
       <c r="AF17" s="1">
         <v>21.122615</v>
       </c>
       <c r="AG17" s="1">
-        <v>1367.930000</v>
+        <v>1367.93</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.522000</v>
+        <v>-180.52199999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>76051.633696</v>
+        <v>76051.633696000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.125454</v>
+        <v>21.125454000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.450000</v>
+        <v>1389.45</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.172000</v>
+        <v>-210.172</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>76062.083377</v>
+        <v>76062.083377000003</v>
       </c>
       <c r="AP17" s="1">
         <v>21.128356</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.494000</v>
+        <v>-253.494</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>76072.774148</v>
+        <v>76072.774147999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.131326</v>
+        <v>21.131326000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.706000</v>
+        <v>-312.70600000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>76084.131044</v>
+        <v>76084.131043999994</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.134481</v>
+        <v>21.134481000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1457.020000</v>
+        <v>1457.02</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.166000</v>
+        <v>-364.166</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>76095.152646</v>
+        <v>76095.152646000002</v>
       </c>
       <c r="BE17" s="1">
         <v>21.137542</v>
       </c>
       <c r="BF17" s="1">
-        <v>1543.680000</v>
+        <v>1543.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.997000</v>
+        <v>-608.99699999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>76106.440599</v>
+        <v>76106.440598999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.140678</v>
+        <v>21.140678000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1699.480000</v>
+        <v>1699.48</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.150000</v>
+        <v>-1047.1500000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>76117.617944</v>
+        <v>76117.617943999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.143783</v>
+        <v>21.143782999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1995.030000</v>
+        <v>1995.03</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.000000</v>
+        <v>-1804</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>76128.990249</v>
+        <v>76128.990248999995</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.146942</v>
+        <v>21.146941999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.750000</v>
+        <v>2382.75</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2672.730000</v>
+        <v>-2672.73</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>76139.799531</v>
+        <v>76139.799530999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.149944</v>
+        <v>21.149944000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.560000</v>
+        <v>2863.56</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3622.270000</v>
+        <v>-3622.27</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>76152.109738</v>
+        <v>76152.109737999999</v>
       </c>
       <c r="CD17" s="1">
         <v>21.153364</v>
       </c>
       <c r="CE17" s="1">
-        <v>4262.070000</v>
+        <v>4262.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5902.170000</v>
+        <v>-5902.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>75979.344241</v>
+        <v>75979.344240999999</v>
       </c>
       <c r="B18" s="1">
         <v>21.105373</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.930000</v>
+        <v>1247.93</v>
       </c>
       <c r="D18" s="1">
-        <v>-304.481000</v>
+        <v>-304.48099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>75989.775146</v>
       </c>
       <c r="G18" s="1">
-        <v>21.108271</v>
+        <v>21.108270999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.380000</v>
+        <v>1273.3800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.739000</v>
+        <v>-263.73899999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>76000.031877</v>
+        <v>76000.031877000001</v>
       </c>
       <c r="L18" s="1">
-        <v>21.111120</v>
+        <v>21.11112</v>
       </c>
       <c r="M18" s="1">
-        <v>1309.840000</v>
+        <v>1309.8399999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.478000</v>
+        <v>-203.47800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>76010.520775</v>
+        <v>76010.520774999997</v>
       </c>
       <c r="Q18" s="1">
         <v>21.114034</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.590000</v>
+        <v>1322.59</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.071000</v>
+        <v>-186.071</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>76021.023602</v>
+        <v>76021.023602000001</v>
       </c>
       <c r="V18" s="1">
         <v>21.116951</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.914000</v>
+        <v>-172.91399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>76031.561562</v>
+        <v>76031.561562000003</v>
       </c>
       <c r="AA18" s="1">
         <v>21.119878</v>
       </c>
       <c r="AB18" s="1">
-        <v>1354.550000</v>
+        <v>1354.55</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.708000</v>
+        <v>-170.708</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>76041.759308</v>
+        <v>76041.759307999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.122711</v>
+        <v>21.122710999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1367.910000</v>
+        <v>1367.91</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.450000</v>
+        <v>-180.45</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>76051.983840</v>
+        <v>76051.983840000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.125551</v>
+        <v>21.125551000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.460000</v>
+        <v>1389.46</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.131000</v>
+        <v>-210.131</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>76062.803569</v>
+        <v>76062.803568999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.128557</v>
+        <v>21.128557000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.494000</v>
+        <v>-253.494</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>76073.503762</v>
+        <v>76073.503761999993</v>
       </c>
       <c r="AU18" s="1">
         <v>21.131529</v>
       </c>
       <c r="AV18" s="1">
-        <v>1437.230000</v>
+        <v>1437.23</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.728000</v>
+        <v>-312.72800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>76084.516598</v>
+        <v>76084.516598000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.134588</v>
+        <v>21.134588000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.160000</v>
+        <v>-364.16</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>76095.515718</v>
+        <v>76095.515717999995</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.137643</v>
+        <v>21.137643000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1543.720000</v>
+        <v>1543.72</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.972000</v>
+        <v>-608.97199999999998</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>76106.814636</v>
+        <v>76106.814635999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.140782</v>
+        <v>21.140782000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1699.510000</v>
+        <v>1699.51</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.050000</v>
+        <v>-1047.05</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>76118.329705</v>
+        <v>76118.329704999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.143980</v>
+        <v>21.143979999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1994.960000</v>
+        <v>1994.96</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1804.000000</v>
+        <v>-1804</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>76129.112554</v>
+        <v>76129.112554000007</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.146976</v>
+        <v>21.146975999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.170000</v>
+        <v>2382.17</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2672.250000</v>
+        <v>-2672.25</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>76139.910139</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.149975</v>
+        <v>21.149975000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2863.740000</v>
+        <v>2863.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3622.280000</v>
+        <v>-3622.28</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>76152.624090</v>
+        <v>76152.624089999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.153507</v>
+        <v>21.153507000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4273.030000</v>
+        <v>4273.03</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5894.060000</v>
+        <v>-5894.06</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>75979.772820</v>
+        <v>75979.772819999998</v>
       </c>
       <c r="B19" s="1">
-        <v>21.105492</v>
+        <v>21.105492000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="D19" s="1">
-        <v>-304.397000</v>
+        <v>-304.39699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>75990.226961</v>
+        <v>75990.226960999993</v>
       </c>
       <c r="G19" s="1">
-        <v>21.108396</v>
+        <v>21.108395999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.420000</v>
+        <v>1273.42</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.902000</v>
+        <v>-263.90199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>76000.311123</v>
+        <v>76000.311123000007</v>
       </c>
       <c r="L19" s="1">
-        <v>21.111198</v>
+        <v>21.111198000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.250000</v>
+        <v>1310.25</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.854000</v>
+        <v>-203.85400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>76010.871974</v>
+        <v>76010.871973999994</v>
       </c>
       <c r="Q19" s="1">
         <v>21.114131</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.520000</v>
+        <v>1322.52</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.075000</v>
+        <v>-186.07499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>76021.368279</v>
+        <v>76021.368279000002</v>
       </c>
       <c r="V19" s="1">
-        <v>21.117047</v>
+        <v>21.117046999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1336.310000</v>
+        <v>1336.31</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.786000</v>
+        <v>-172.786</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>76031.909785</v>
+        <v>76031.909784999996</v>
       </c>
       <c r="AA19" s="1">
         <v>21.119975</v>
       </c>
       <c r="AB19" s="1">
-        <v>1354.390000</v>
+        <v>1354.39</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.931000</v>
+        <v>-170.93100000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>76042.441803</v>
+        <v>76042.441802999994</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.122901</v>
+        <v>21.122900999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.498000</v>
+        <v>-180.49799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>76052.679230</v>
+        <v>76052.679229999994</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.125744</v>
+        <v>21.125744000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.410000</v>
+        <v>1389.41</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.123000</v>
+        <v>-210.12299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>76063.162672</v>
+        <v>76063.162672000006</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.128656</v>
+        <v>21.128655999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1411.910000</v>
+        <v>1411.91</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.497000</v>
+        <v>-253.49700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>76073.896134</v>
+        <v>76073.896133999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.131638</v>
+        <v>21.131637999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1437.210000</v>
+        <v>1437.21</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.696000</v>
+        <v>-312.69600000000003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>76084.898883</v>
+        <v>76084.898883000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.134694</v>
       </c>
       <c r="BA19" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.121000</v>
+        <v>-364.12099999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>76096.192789</v>
+        <v>76096.192788999993</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.137831</v>
+        <v>21.137830999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1543.720000</v>
+        <v>1543.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.003000</v>
+        <v>-609.00300000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>76107.511958</v>
+        <v>76107.511958000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.140976</v>
+        <v>21.140975999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1699.460000</v>
+        <v>1699.46</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.100000</v>
+        <v>-1047.0999999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>76118.441335</v>
+        <v>76118.441334999996</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.144011</v>
+        <v>21.144010999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1995.120000</v>
+        <v>1995.12</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1804.100000</v>
+        <v>-1804.1</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>76129.550201</v>
+        <v>76129.550201000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.147097</v>
+        <v>21.147096999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2382.380000</v>
+        <v>2382.38</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2672.460000</v>
+        <v>-2672.46</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>76140.349627</v>
+        <v>76140.349627000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.150097</v>
+        <v>21.150096999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2863.750000</v>
+        <v>2863.75</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3622.220000</v>
+        <v>-3622.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>76153.143898</v>
+        <v>76153.143897999995</v>
       </c>
       <c r="CD19" s="1">
         <v>21.153651</v>
       </c>
       <c r="CE19" s="1">
-        <v>4263.260000</v>
+        <v>4263.26</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5884.810000</v>
+        <v>-5884.81</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>75980.040140</v>
+        <v>75980.040139999997</v>
       </c>
       <c r="B20" s="1">
-        <v>21.105567</v>
+        <v>21.105567000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="D20" s="1">
-        <v>-304.732000</v>
+        <v>-304.73200000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>75990.469504</v>
+        <v>75990.469503999993</v>
       </c>
       <c r="G20" s="1">
-        <v>21.108464</v>
+        <v>21.108464000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.150000</v>
+        <v>1273.1500000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.350000</v>
+        <v>-264.35000000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>76000.655347</v>
+        <v>76000.655347000007</v>
       </c>
       <c r="L20" s="1">
         <v>21.111293</v>
       </c>
       <c r="M20" s="1">
-        <v>1310.420000</v>
+        <v>1310.42</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.841000</v>
+        <v>-203.84100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>76011.220132</v>
+        <v>76011.220132000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.114228</v>
+        <v>21.114228000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.480000</v>
+        <v>1322.48</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.034000</v>
+        <v>-186.03399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>76021.716472</v>
       </c>
       <c r="V20" s="1">
-        <v>21.117143</v>
+        <v>21.117142999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.060000</v>
+        <v>1336.06</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.945000</v>
+        <v>-172.94499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>76032.605154</v>
+        <v>76032.605154000004</v>
       </c>
       <c r="AA20" s="1">
         <v>21.120168</v>
       </c>
       <c r="AB20" s="1">
-        <v>1354.440000</v>
+        <v>1354.44</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.890000</v>
+        <v>-170.89</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>76042.789499</v>
+        <v>76042.789499000006</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.122997</v>
+        <v>21.122997000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1367.980000</v>
+        <v>1367.98</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.473000</v>
+        <v>-180.47300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>76053.028413</v>
+        <v>76053.028412999993</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.125841</v>
+        <v>21.125841000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.490000</v>
+        <v>1389.49</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.129000</v>
+        <v>-210.12899999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>76063.522800</v>
+        <v>76063.522800000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.128756</v>
+        <v>21.128755999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.452000</v>
+        <v>-253.452</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>76074.263633</v>
+        <v>76074.263632999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.131740</v>
+        <v>21.131740000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.727000</v>
+        <v>-312.72699999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>76085.568450</v>
+        <v>76085.568450000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.134880</v>
+        <v>21.134879999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1457.010000</v>
+        <v>1457.01</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.134000</v>
+        <v>-364.13400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>76096.625268</v>
+        <v>76096.625268000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.137951</v>
+        <v>21.137951000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1543.730000</v>
+        <v>1543.73</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.976000</v>
+        <v>-608.976</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>76107.971786</v>
+        <v>76107.971785999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.141103</v>
+        <v>21.141103000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1699.480000</v>
+        <v>1699.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.060000</v>
+        <v>-1047.06</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>76118.863574</v>
+        <v>76118.863574000003</v>
       </c>
       <c r="BO20" s="1">
         <v>21.144129</v>
       </c>
       <c r="BP20" s="1">
-        <v>1995.100000</v>
+        <v>1995.1</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.010000</v>
+        <v>-1804.01</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>76129.975805</v>
+        <v>76129.975804999995</v>
       </c>
       <c r="BT20" s="1">
         <v>21.147216</v>
       </c>
       <c r="BU20" s="1">
-        <v>2382.270000</v>
+        <v>2382.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2672.240000</v>
+        <v>-2672.24</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>76140.803433</v>
+        <v>76140.803432999994</v>
       </c>
       <c r="BY20" s="1">
         <v>21.150223</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2864.140000</v>
+        <v>2864.14</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3621.640000</v>
+        <v>-3621.64</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>76153.659242</v>
+        <v>76153.659241999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.153794</v>
+        <v>21.153794000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4265.720000</v>
+        <v>4265.72</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5882.790000</v>
+        <v>-5882.79</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>75980.382864</v>
+        <v>75980.382863999999</v>
       </c>
       <c r="B21" s="1">
-        <v>21.105662</v>
+        <v>21.105661999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D21" s="1">
-        <v>-304.741000</v>
+        <v>-304.74099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>75990.813728</v>
+        <v>75990.813727999994</v>
       </c>
       <c r="G21" s="1">
         <v>21.108559</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.100000</v>
+        <v>1273.0999999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.659000</v>
+        <v>-264.65899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>76000.999604</v>
+        <v>76000.999603999997</v>
       </c>
       <c r="L21" s="1">
-        <v>21.111389</v>
+        <v>21.111388999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.080000</v>
+        <v>1310.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.648000</v>
+        <v>-203.648</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>76011.918501</v>
+        <v>76011.918500999993</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.114422</v>
+        <v>21.114422000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.460000</v>
+        <v>1322.46</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.938000</v>
+        <v>-185.93799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>76022.398506</v>
+        <v>76022.398505999998</v>
       </c>
       <c r="V21" s="1">
-        <v>21.117333</v>
+        <v>21.117332999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1336.260000</v>
+        <v>1336.26</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.785000</v>
+        <v>-172.785</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>76032.952841</v>
+        <v>76032.952841000006</v>
       </c>
       <c r="AA21" s="1">
         <v>21.120265</v>
       </c>
       <c r="AB21" s="1">
-        <v>1354.480000</v>
+        <v>1354.48</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.887000</v>
+        <v>-170.887</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>76043.137082</v>
+        <v>76043.137082000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.123094</v>
+        <v>21.123093999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.462000</v>
+        <v>-180.46199999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>76053.380077</v>
+        <v>76053.380076999994</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.125939</v>
+        <v>21.125938999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.460000</v>
+        <v>1389.46</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.144000</v>
+        <v>-210.14400000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>76064.198815</v>
+        <v>76064.198814999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.128944</v>
+        <v>21.128944000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.487000</v>
+        <v>-253.48699999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>76074.957077</v>
+        <v>76074.957076999999</v>
       </c>
       <c r="AU21" s="1">
         <v>21.131933</v>
       </c>
       <c r="AV21" s="1">
-        <v>1437.210000</v>
+        <v>1437.21</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.683000</v>
+        <v>-312.68299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>76085.977154</v>
+        <v>76085.977153999993</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.134994</v>
+        <v>21.134993999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1456.990000</v>
+        <v>1456.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.141000</v>
+        <v>-364.14100000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>76096.986885</v>
+        <v>76096.986885000006</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.138052</v>
+        <v>21.138051999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1543.690000</v>
+        <v>1543.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.994000</v>
+        <v>-608.99400000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>76108.465269</v>
+        <v>76108.465268999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.141240</v>
+        <v>21.14124</v>
       </c>
       <c r="BK21" s="1">
-        <v>1699.510000</v>
+        <v>1699.51</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.080000</v>
+        <v>-1047.08</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>76119.258214</v>
+        <v>76119.258214000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.144238</v>
+        <v>21.144238000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1995.080000</v>
+        <v>1995.08</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1803.920000</v>
+        <v>-1803.92</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>76130.409769</v>
+        <v>76130.409769000005</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.147336</v>
+        <v>21.147335999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2382.330000</v>
+        <v>2382.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2672.300000</v>
+        <v>-2672.3</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>76141.241898</v>
+        <v>76141.241897999993</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.150345</v>
+        <v>21.150345000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2863.720000</v>
+        <v>2863.72</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3621.780000</v>
+        <v>-3621.78</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>76154.223224</v>
+        <v>76154.223224000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.153951</v>
+        <v>21.153950999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4272.840000</v>
+        <v>4272.84</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5892.140000</v>
+        <v>-5892.14</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>75980.725867</v>
+        <v>75980.725867000001</v>
       </c>
       <c r="B22" s="1">
-        <v>21.105757</v>
+        <v>21.105757000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.660000</v>
+        <v>-304.66000000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>75991.158943</v>
+        <v>75991.158943000002</v>
       </c>
       <c r="G22" s="1">
-        <v>21.108655</v>
+        <v>21.108654999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.900000</v>
+        <v>1273.9000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.516000</v>
+        <v>-263.51600000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>76001.690508</v>
       </c>
       <c r="L22" s="1">
-        <v>21.111581</v>
+        <v>21.111581000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.140000</v>
+        <v>1310.1400000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.621000</v>
+        <v>-203.62100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>76012.265732</v>
@@ -5666,211 +6082,211 @@
         <v>21.114518</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.570000</v>
+        <v>1322.57</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.924000</v>
+        <v>-185.92400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>76022.742230</v>
+        <v>76022.742230000003</v>
       </c>
       <c r="V22" s="1">
         <v>21.117428</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.962000</v>
+        <v>-172.96199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>76033.302520</v>
+        <v>76033.302519999997</v>
       </c>
       <c r="AA22" s="1">
         <v>21.120362</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.380000</v>
+        <v>1354.38</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.781000</v>
+        <v>-170.78100000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>76043.800380</v>
+        <v>76043.800380000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.123278</v>
+        <v>21.123277999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1367.910000</v>
+        <v>1367.91</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.509000</v>
+        <v>-180.50899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>76054.041740</v>
+        <v>76054.041740000001</v>
       </c>
       <c r="AK22" s="1">
         <v>21.126123</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.430000</v>
+        <v>1389.43</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.159000</v>
+        <v>-210.15899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>76064.601075</v>
+        <v>76064.601074999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.129056</v>
+        <v>21.129055999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.480000</v>
+        <v>-253.48</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>76075.382608</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.132051</v>
+        <v>21.132051000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1437.200000</v>
+        <v>1437.2</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.700000</v>
+        <v>-312.7</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>76086.356595</v>
+        <v>76086.356595000005</v>
       </c>
       <c r="AZ22" s="1">
         <v>21.135099</v>
       </c>
       <c r="BA22" s="1">
-        <v>1457.010000</v>
+        <v>1457.01</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>76097.349427</v>
+        <v>76097.349426999994</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.138153</v>
+        <v>21.138152999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1543.700000</v>
+        <v>1543.7</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.985000</v>
+        <v>-608.98500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>76109.061459</v>
+        <v>76109.061459000004</v>
       </c>
       <c r="BJ22" s="1">
         <v>21.141406</v>
       </c>
       <c r="BK22" s="1">
-        <v>1699.520000</v>
+        <v>1699.52</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.070000</v>
+        <v>-1047.07</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>76119.686261</v>
+        <v>76119.686260999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.144357</v>
+        <v>21.144356999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1995.170000</v>
+        <v>1995.17</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1803.790000</v>
+        <v>-1803.79</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>76130.818967</v>
+        <v>76130.818966999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.147450</v>
+        <v>21.147449999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2382.110000</v>
+        <v>2382.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2672.030000</v>
+        <v>-2672.03</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>76141.646136</v>
+        <v>76141.646135999996</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.150457</v>
+        <v>21.150456999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2863.760000</v>
+        <v>2863.76</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3621.710000</v>
+        <v>-3621.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>76154.743495</v>
+        <v>76154.743495000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.154095</v>
+        <v>21.154095000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4260.930000</v>
+        <v>4260.93</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5884.460000</v>
+        <v>-5884.46</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>75981.410076</v>
       </c>
@@ -5878,58 +6294,58 @@
         <v>21.105947</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.030000</v>
+        <v>1248.03</v>
       </c>
       <c r="D23" s="1">
-        <v>-304.930000</v>
+        <v>-304.93</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>75991.851856</v>
+        <v>75991.851855999994</v>
       </c>
       <c r="G23" s="1">
-        <v>21.108848</v>
+        <v>21.108847999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.680000</v>
+        <v>1273.68</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.152000</v>
+        <v>-264.15199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>76002.036705</v>
+        <v>76002.036705000006</v>
       </c>
       <c r="L23" s="1">
         <v>21.111677</v>
       </c>
       <c r="M23" s="1">
-        <v>1309.750000</v>
+        <v>1309.75</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.338000</v>
+        <v>-203.33799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>76012.614419</v>
+        <v>76012.614419000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.114615</v>
+        <v>21.114615000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.570000</v>
+        <v>1322.57</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.958000</v>
+        <v>-185.958</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>76023.086421</v>
@@ -5938,210 +6354,210 @@
         <v>21.117524</v>
       </c>
       <c r="W23" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.795000</v>
+        <v>-172.79499999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>76033.970134</v>
+        <v>76033.970134000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.120547</v>
+        <v>21.120546999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1354.320000</v>
+        <v>1354.32</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.837000</v>
+        <v>-170.83699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>76044.168408</v>
+        <v>76044.168407999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.123380</v>
+        <v>21.123380000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1367.960000</v>
+        <v>1367.96</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.515000</v>
+        <v>-180.51499999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>76054.422173</v>
+        <v>76054.422172999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.126228</v>
+        <v>21.126228000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.450000</v>
+        <v>1389.45</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.157000</v>
+        <v>-210.15700000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>76064.986462</v>
+        <v>76064.986462000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.129163</v>
+        <v>21.129162999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1411.880000</v>
+        <v>1411.88</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.479000</v>
+        <v>-253.47900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>76075.748160</v>
+        <v>76075.748160000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.132152</v>
+        <v>21.132152000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1437.190000</v>
+        <v>1437.19</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.718000</v>
+        <v>-312.71800000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>76086.737554</v>
+        <v>76086.737554000007</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.135205</v>
+        <v>21.135204999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1457.020000</v>
+        <v>1457.02</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.166000</v>
+        <v>-364.166</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>76097.777970</v>
+        <v>76097.777969999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.138272</v>
+        <v>21.138272000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1543.670000</v>
+        <v>1543.67</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.970000</v>
+        <v>-608.97</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>76109.489507</v>
+        <v>76109.489507000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.141525</v>
+        <v>21.141525000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1699.420000</v>
+        <v>1699.42</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.040000</v>
+        <v>-1047.04</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>76120.079093</v>
+        <v>76120.079092999993</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.144466</v>
+        <v>21.144466000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1994.960000</v>
+        <v>1994.96</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1803.880000</v>
+        <v>-1803.88</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>76131.248502</v>
+        <v>76131.248502000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.147569</v>
+        <v>21.147569000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2382.070000</v>
+        <v>2382.0700000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2672.150000</v>
+        <v>-2672.15</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>76142.093528</v>
+        <v>76142.093527999998</v>
       </c>
       <c r="BY23" s="1">
         <v>21.150582</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2863.050000</v>
+        <v>2863.05</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3621.790000</v>
+        <v>-3621.79</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>76155.258838</v>
+        <v>76155.258837999994</v>
       </c>
       <c r="CD23" s="1">
         <v>21.154239</v>
       </c>
       <c r="CE23" s="1">
-        <v>4254.390000</v>
+        <v>4254.3900000000003</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5898.800000</v>
+        <v>-5898.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>75981.754828</v>
+        <v>75981.754828000005</v>
       </c>
       <c r="B24" s="1">
         <v>21.106043</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.050000</v>
+        <v>1248.05</v>
       </c>
       <c r="D24" s="1">
-        <v>-304.595000</v>
+        <v>-304.59500000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>75992.195087</v>
@@ -6150,542 +6566,542 @@
         <v>21.108943</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.810000</v>
+        <v>1273.81</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.205000</v>
+        <v>-264.20499999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>76002.382914</v>
+        <v>76002.382914000002</v>
       </c>
       <c r="L24" s="1">
-        <v>21.111773</v>
+        <v>21.111772999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1310.210000</v>
+        <v>1310.21</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.964000</v>
+        <v>-203.964</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>76013.280514</v>
+        <v>76013.280513999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.114800</v>
+        <v>21.114799999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.540000</v>
+        <v>1322.54</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.046000</v>
+        <v>-186.04599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>76023.752053</v>
+        <v>76023.752053000004</v>
       </c>
       <c r="V24" s="1">
-        <v>21.117709</v>
+        <v>21.117709000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1336.260000</v>
+        <v>1336.26</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.773000</v>
+        <v>-172.773</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>76034.347590</v>
+        <v>76034.347590000005</v>
       </c>
       <c r="AA24" s="1">
         <v>21.120652</v>
       </c>
       <c r="AB24" s="1">
-        <v>1354.430000</v>
+        <v>1354.43</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.853000</v>
+        <v>-170.85300000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>76044.512105</v>
+        <v>76044.512105000002</v>
       </c>
       <c r="AF24" s="1">
         <v>21.123476</v>
       </c>
       <c r="AG24" s="1">
-        <v>1367.880000</v>
+        <v>1367.88</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.506000</v>
+        <v>-180.506</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>76054.770861</v>
+        <v>76054.770860999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.126325</v>
+        <v>21.126325000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.450000</v>
+        <v>1389.45</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.116000</v>
+        <v>-210.11600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>76065.344097</v>
+        <v>76065.344096999994</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.129262</v>
+        <v>21.129262000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.473000</v>
+        <v>-253.47300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>76076.178694</v>
+        <v>76076.178694000002</v>
       </c>
       <c r="AU24" s="1">
         <v>21.132272</v>
       </c>
       <c r="AV24" s="1">
-        <v>1437.190000</v>
+        <v>1437.19</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.713000</v>
+        <v>-312.71300000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>76087.170033</v>
+        <v>76087.170033000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.135325</v>
+        <v>21.135325000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1457.000000</v>
+        <v>1457</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.106000</v>
+        <v>-364.10599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>76098.070114</v>
+        <v>76098.070114000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.138353</v>
+        <v>21.138352999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1543.710000</v>
+        <v>1543.71</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.979000</v>
+        <v>-608.97900000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>76109.862498</v>
+        <v>76109.862498000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.141628</v>
+        <v>21.141628000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1699.550000</v>
+        <v>1699.55</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.070000</v>
+        <v>-1047.07</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>76120.500692</v>
+        <v>76120.500692000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.144584</v>
+        <v>21.144583999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1995.060000</v>
+        <v>1995.06</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1803.810000</v>
+        <v>-1803.81</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>76131.661173</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.147684</v>
+        <v>21.147684000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2381.890000</v>
+        <v>2381.89</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2672.250000</v>
+        <v>-2672.25</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>76142.523064</v>
+        <v>76142.523063999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.150701</v>
+        <v>21.150701000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2863.460000</v>
+        <v>2863.46</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3622.010000</v>
+        <v>-3622.01</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>76155.780631</v>
+        <v>76155.780631000001</v>
       </c>
       <c r="CD24" s="1">
         <v>21.154384</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.490000</v>
+        <v>4270.49</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5904.070000</v>
+        <v>-5904.07</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>75982.094555</v>
+        <v>75982.094555000003</v>
       </c>
       <c r="B25" s="1">
         <v>21.106137</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.060000</v>
+        <v>1248.06</v>
       </c>
       <c r="D25" s="1">
-        <v>-304.479000</v>
+        <v>-304.47899999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>75992.543279</v>
+        <v>75992.543279000005</v>
       </c>
       <c r="G25" s="1">
-        <v>21.109040</v>
+        <v>21.10904</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.420000</v>
+        <v>1273.42</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.916000</v>
+        <v>-263.916</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>76003.039626</v>
+        <v>76003.039625999998</v>
       </c>
       <c r="L25" s="1">
-        <v>21.111955</v>
+        <v>21.111954999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.330000</v>
+        <v>1310.33</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.629000</v>
+        <v>-203.62899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>76013.660947</v>
+        <v>76013.660946999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.114906</v>
+        <v>21.114906000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.500000</v>
+        <v>1322.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.911000</v>
+        <v>-185.911</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>76024.124547</v>
+        <v>76024.124546999999</v>
       </c>
       <c r="V25" s="1">
-        <v>21.117812</v>
+        <v>21.117812000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.923000</v>
+        <v>-172.923</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>76034.695286</v>
+        <v>76034.695286000002</v>
       </c>
       <c r="AA25" s="1">
         <v>21.120749</v>
       </c>
       <c r="AB25" s="1">
-        <v>1354.360000</v>
+        <v>1354.36</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.923000</v>
+        <v>-170.923</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>76044.850873</v>
+        <v>76044.850873000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.123570</v>
+        <v>21.123570000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1367.960000</v>
+        <v>1367.96</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.443000</v>
+        <v>-180.44300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>76055.119331</v>
+        <v>76055.119330999994</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.126422</v>
+        <v>21.126422000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1389.460000</v>
+        <v>1389.46</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.145000</v>
+        <v>-210.14500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>76065.770140</v>
+        <v>76065.770139999993</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.129381</v>
+        <v>21.129380999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.489000</v>
+        <v>-253.489</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>76076.475792</v>
+        <v>76076.475791999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.132354</v>
+        <v>21.132353999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1437.180000</v>
+        <v>1437.18</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.736000</v>
+        <v>-312.73599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>76087.452789</v>
+        <v>76087.452789000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.135404</v>
+        <v>21.135404000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1456.960000</v>
+        <v>1456.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.171000</v>
+        <v>-364.17099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>76098.428723</v>
+        <v>76098.428723000005</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.138452</v>
+        <v>21.138452000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1543.710000</v>
+        <v>1543.71</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.971000</v>
+        <v>-608.971</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>76110.243426</v>
+        <v>76110.243426000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>21.141734</v>
       </c>
       <c r="BK25" s="1">
-        <v>1699.490000</v>
+        <v>1699.49</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.070000</v>
+        <v>-1047.07</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>76120.896016</v>
+        <v>76120.896015999999</v>
       </c>
       <c r="BO25" s="1">
         <v>21.144693</v>
       </c>
       <c r="BP25" s="1">
-        <v>1994.900000</v>
+        <v>1994.9</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1803.920000</v>
+        <v>-1803.92</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>76132.090710</v>
+        <v>76132.090710000004</v>
       </c>
       <c r="BT25" s="1">
         <v>21.147803</v>
       </c>
       <c r="BU25" s="1">
-        <v>2381.760000</v>
+        <v>2381.7600000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2672.130000</v>
+        <v>-2672.13</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>76142.945687</v>
+        <v>76142.945686999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.150818</v>
+        <v>21.150818000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2863.530000</v>
+        <v>2863.53</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3620.680000</v>
+        <v>-3620.68</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>76156.297461</v>
+        <v>76156.297460999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.154527</v>
+        <v>21.154527000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>4264.940000</v>
+        <v>4264.9399999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5903.310000</v>
+        <v>-5903.31</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>75982.756218</v>
+        <v>75982.756217999995</v>
       </c>
       <c r="B26" s="1">
-        <v>21.106321</v>
+        <v>21.106321000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-304.669000</v>
+        <v>-304.66899999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>75992.990669</v>
+        <v>75992.990669000006</v>
       </c>
       <c r="G26" s="1">
         <v>21.109164</v>
       </c>
       <c r="H26" s="1">
-        <v>1274.310000</v>
+        <v>1274.31</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.324000</v>
+        <v>-264.32400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>76003.421535</v>
+        <v>76003.421535000001</v>
       </c>
       <c r="L26" s="1">
-        <v>21.112062</v>
+        <v>21.112062000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1309.960000</v>
+        <v>1309.96</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.424000</v>
+        <v>-203.42400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>76014.008145</v>
@@ -6694,210 +7110,211 @@
         <v>21.115002</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.500000</v>
+        <v>1322.5</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.835000</v>
+        <v>-185.83500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>76024.474724</v>
       </c>
       <c r="V26" s="1">
-        <v>21.117910</v>
+        <v>21.117909999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.871000</v>
+        <v>-172.87100000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>76035.044470</v>
+        <v>76035.044469999993</v>
       </c>
       <c r="AA26" s="1">
         <v>21.120846</v>
       </c>
       <c r="AB26" s="1">
-        <v>1354.310000</v>
+        <v>1354.31</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.785000</v>
+        <v>-170.785</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>76045.287389</v>
+        <v>76045.287389000005</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.123691</v>
+        <v>21.123691000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1367.960000</v>
+        <v>1367.96</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.467000</v>
+        <v>-180.46700000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>76055.549578</v>
+        <v>76055.549578000006</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.126542</v>
+        <v>21.126542000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1389.450000</v>
+        <v>1389.45</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.147000</v>
+        <v>-210.14699999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>76066.064269</v>
+        <v>76066.064268999995</v>
       </c>
       <c r="AP26" s="1">
         <v>21.129462</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1411.920000</v>
+        <v>1411.92</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.452000</v>
+        <v>-253.452</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>76076.843822</v>
+        <v>76076.843821999995</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.132457</v>
+        <v>21.132456999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1437.190000</v>
+        <v>1437.19</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.710000</v>
+        <v>-312.70999999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>76087.811392</v>
+        <v>76087.811392000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>21.135503</v>
       </c>
       <c r="BA26" s="1">
-        <v>1456.980000</v>
+        <v>1456.98</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.142000</v>
+        <v>-364.142</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>76098.792785</v>
+        <v>76098.792784999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.138554</v>
+        <v>21.138553999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1543.720000</v>
+        <v>1543.72</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.944000</v>
+        <v>-608.94399999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>76110.990937</v>
+        <v>76110.990936999995</v>
       </c>
       <c r="BJ26" s="1">
         <v>21.141942</v>
       </c>
       <c r="BK26" s="1">
-        <v>1699.510000</v>
+        <v>1699.51</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1046.960000</v>
+        <v>-1046.96</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>76121.319587</v>
+        <v>76121.319587000005</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.144811</v>
+        <v>21.144811000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1995.000000</v>
+        <v>1995</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1803.850000</v>
+        <v>-1803.85</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>76132.519252</v>
+        <v>76132.519251999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.147922</v>
+        <v>21.147922000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2381.380000</v>
+        <v>2381.38</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2672.060000</v>
+        <v>-2672.06</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>76143.367750</v>
+        <v>76143.367750000005</v>
       </c>
       <c r="BY26" s="1">
         <v>21.150935</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2862.880000</v>
+        <v>2862.88</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3621.260000</v>
+        <v>-3621.26</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>76156.848516</v>
+        <v>76156.848515999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.154680</v>
+        <v>21.154679999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4253.920000</v>
+        <v>4253.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5899.310000</v>
+        <v>-5899.31</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>